--- a/TESTSUITE/TS_DangKy.xlsx
+++ b/TESTSUITE/TS_DangKy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13940" tabRatio="462" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12520" tabRatio="462" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ListTestcase" sheetId="1" r:id="rId1"/>
@@ -949,10 +949,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -983,38 +983,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1028,11 +1011,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1050,25 +1057,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,7 +1066,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,8 +1087,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,22 +1112,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,7 +1159,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,115 +1321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,49 +1333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,45 +1373,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1423,6 +1384,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1444,11 +1425,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1462,163 +1456,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1647,9 +1647,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2034,10 +2039,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -2045,95 +2050,95 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="16.2" customHeight="1" spans="1:3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="26"/>
+      <c r="A11" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2146,65 +2151,65 @@
   <sheetPr/>
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" topLeftCell="A128" workbookViewId="0">
+    <sheetView zoomScale="74" zoomScaleNormal="74" topLeftCell="A128" workbookViewId="0">
       <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="20.9140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="21.6171875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="18.6015625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="25.1171875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="15" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="8.890625" style="20"/>
+    <col min="1" max="1" width="17.21875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20.9140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="21.6171875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.6015625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.1171875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="15" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="8.890625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="21" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
+    <row r="2" s="22" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
       <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" s="19" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
+    <row r="3" s="22" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="15"/>
@@ -2214,23 +2219,23 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="4" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" s="19" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A5" s="21" t="s">
+    <row r="5" s="22" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="15"/>
@@ -2244,8 +2249,8 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" s="19" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A6" s="24"/>
+    <row r="6" s="22" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
+      <c r="A6" s="27"/>
       <c r="B6" s="15" t="s">
         <v>38</v>
       </c>
@@ -2261,7 +2266,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" s="19" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="7" s="22" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>42</v>
@@ -2269,16 +2274,16 @@
       <c r="C7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" s="19" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="8" s="22" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>45</v>
@@ -2295,7 +2300,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" s="19" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="9" s="22" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>48</v>
@@ -2303,16 +2308,16 @@
       <c r="C9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" s="19" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="10" s="22" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>51</v>
@@ -2329,7 +2334,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" s="19" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="11" s="22" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>54</v>
@@ -2337,16 +2342,16 @@
       <c r="C11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" s="19" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="12" s="22" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>57</v>
@@ -2362,7 +2367,7 @@
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="15" t="s">
         <v>60</v>
       </c>
@@ -2373,74 +2378,74 @@
       <c r="E13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" ht="32" spans="1:7">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" ht="32" spans="1:7">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" ht="32" spans="1:7">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" ht="48" spans="1:7">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="15" t="s">
         <v>33</v>
       </c>
@@ -2448,11 +2453,11 @@
       <c r="E18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A19" s="24"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A19" s="27"/>
       <c r="B19" s="15" t="s">
         <v>72</v>
       </c>
@@ -2466,7 +2471,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="20" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
         <v>74</v>
@@ -2474,14 +2479,14 @@
       <c r="C20" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="21" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
         <v>75</v>
@@ -2496,7 +2501,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="22" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
         <v>76</v>
@@ -2504,14 +2509,14 @@
       <c r="C22" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="23" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A23" s="15"/>
       <c r="B23" s="15" t="s">
         <v>77</v>
@@ -2526,7 +2531,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="24" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
         <v>78</v>
@@ -2534,14 +2539,14 @@
       <c r="C24" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="25" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
         <v>57</v>
@@ -2557,7 +2562,7 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="15" t="s">
         <v>60</v>
       </c>
@@ -2568,54 +2573,54 @@
       <c r="E26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:7">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" ht="32" spans="1:7">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" ht="64" spans="1:7">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A30" s="24"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A30" s="27"/>
       <c r="B30" s="15" t="s">
         <v>38</v>
       </c>
@@ -2631,7 +2636,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="31" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A31" s="15"/>
       <c r="B31" s="15" t="s">
         <v>74</v>
@@ -2639,14 +2644,14 @@
       <c r="C31" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="16"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="32" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
         <v>75</v>
@@ -2661,7 +2666,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="33" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A33" s="15"/>
       <c r="B33" s="15" t="s">
         <v>76</v>
@@ -2669,14 +2674,14 @@
       <c r="C33" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="34" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
         <v>77</v>
@@ -2691,7 +2696,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="35" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
         <v>78</v>
@@ -2699,14 +2704,14 @@
       <c r="C35" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="36" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>57</v>
@@ -2722,7 +2727,7 @@
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="17"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="15" t="s">
         <v>60</v>
       </c>
@@ -2733,43 +2738,43 @@
       <c r="E37" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:7">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G38" s="17"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" ht="32" spans="1:7">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A40" s="24"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A40" s="27"/>
       <c r="B40" s="15" t="s">
         <v>72</v>
       </c>
@@ -2783,7 +2788,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="41" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A41" s="15"/>
       <c r="B41" s="15" t="s">
         <v>42</v>
@@ -2791,16 +2796,16 @@
       <c r="C41" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="42" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
         <v>45</v>
@@ -2817,7 +2822,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="43" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
         <v>48</v>
@@ -2825,16 +2830,16 @@
       <c r="C43" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="44" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A44" s="15"/>
       <c r="B44" s="15" t="s">
         <v>51</v>
@@ -2851,7 +2856,7 @@
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="45" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
         <v>54</v>
@@ -2859,16 +2864,16 @@
       <c r="C45" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="46" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
         <v>57</v>
@@ -2884,7 +2889,7 @@
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="17"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="15" t="s">
         <v>60</v>
       </c>
@@ -2895,43 +2900,43 @@
       <c r="E47" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:7">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17" t="s">
+      <c r="E48" s="20"/>
+      <c r="F48" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G48" s="17"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" ht="32" spans="1:7">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A50" s="24"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A50" s="27"/>
       <c r="B50" s="15" t="s">
         <v>38</v>
       </c>
@@ -2947,7 +2952,7 @@
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="51" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A51" s="15"/>
       <c r="B51" s="15" t="s">
         <v>74</v>
@@ -2955,14 +2960,14 @@
       <c r="C51" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="16"/>
+      <c r="E51" s="18"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="52" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A52" s="15"/>
       <c r="B52" s="15" t="s">
         <v>45</v>
@@ -2979,7 +2984,7 @@
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="53" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A53" s="15"/>
       <c r="B53" s="15" t="s">
         <v>48</v>
@@ -2987,16 +2992,16 @@
       <c r="C53" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="54" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
         <v>51</v>
@@ -3013,7 +3018,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="55" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A55" s="15"/>
       <c r="B55" s="15" t="s">
         <v>54</v>
@@ -3021,16 +3026,16 @@
       <c r="C55" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="56" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A56" s="15"/>
       <c r="B56" s="15" t="s">
         <v>57</v>
@@ -3046,7 +3051,7 @@
       <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="17"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="15" t="s">
         <v>60</v>
       </c>
@@ -3057,43 +3062,43 @@
       <c r="E57" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:7">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17" t="s">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17" t="s">
+      <c r="E58" s="20"/>
+      <c r="F58" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G58" s="17"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" ht="32" spans="1:7">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17" t="s">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-    </row>
-    <row r="60" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A60" s="24"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A60" s="27"/>
       <c r="B60" s="15" t="s">
         <v>38</v>
       </c>
@@ -3109,7 +3114,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="61" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A61" s="15"/>
       <c r="B61" s="15" t="s">
         <v>42</v>
@@ -3117,16 +3122,16 @@
       <c r="C61" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="62" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A62" s="15"/>
       <c r="B62" s="15" t="s">
         <v>75</v>
@@ -3141,7 +3146,7 @@
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="63" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A63" s="15"/>
       <c r="B63" s="15" t="s">
         <v>48</v>
@@ -3149,16 +3154,16 @@
       <c r="C63" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="64" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
         <v>51</v>
@@ -3175,7 +3180,7 @@
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
     </row>
-    <row r="65" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="65" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
         <v>54</v>
@@ -3183,16 +3188,16 @@
       <c r="C65" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
     </row>
-    <row r="66" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="66" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A66" s="15"/>
       <c r="B66" s="15" t="s">
         <v>57</v>
@@ -3208,7 +3213,7 @@
       <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="17"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="15" t="s">
         <v>60</v>
       </c>
@@ -3219,43 +3224,43 @@
       <c r="E67" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:7">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17" t="s">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17" t="s">
+      <c r="E68" s="20"/>
+      <c r="F68" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G68" s="17"/>
+      <c r="G68" s="20"/>
     </row>
     <row r="69" ht="32" spans="1:7">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17" t="s">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17" t="s">
+      <c r="D69" s="20"/>
+      <c r="E69" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-    </row>
-    <row r="70" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A70" s="24"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A70" s="27"/>
       <c r="B70" s="15" t="s">
         <v>38</v>
       </c>
@@ -3271,7 +3276,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="71" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A71" s="15"/>
       <c r="B71" s="15" t="s">
         <v>42</v>
@@ -3279,16 +3284,16 @@
       <c r="C71" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
     </row>
-    <row r="72" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="72" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A72" s="15"/>
       <c r="B72" s="15" t="s">
         <v>45</v>
@@ -3305,7 +3310,7 @@
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
     </row>
-    <row r="73" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="73" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A73" s="15"/>
       <c r="B73" s="15" t="s">
         <v>76</v>
@@ -3313,14 +3318,14 @@
       <c r="C73" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E73" s="16"/>
+      <c r="E73" s="18"/>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
     </row>
-    <row r="74" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="74" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
         <v>51</v>
@@ -3337,7 +3342,7 @@
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
     </row>
-    <row r="75" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="75" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A75" s="15"/>
       <c r="B75" s="15" t="s">
         <v>54</v>
@@ -3345,16 +3350,16 @@
       <c r="C75" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
     </row>
-    <row r="76" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="76" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A76" s="15"/>
       <c r="B76" s="15" t="s">
         <v>57</v>
@@ -3370,7 +3375,7 @@
       <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="17"/>
+      <c r="A77" s="20"/>
       <c r="B77" s="15" t="s">
         <v>60</v>
       </c>
@@ -3381,43 +3386,43 @@
       <c r="E77" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:7">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17" t="s">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17" t="s">
+      <c r="E78" s="20"/>
+      <c r="F78" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G78" s="17"/>
+      <c r="G78" s="20"/>
     </row>
     <row r="79" ht="32" spans="1:7">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17" t="s">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-    </row>
-    <row r="80" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A80" s="24"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+    </row>
+    <row r="80" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A80" s="27"/>
       <c r="B80" s="15" t="s">
         <v>38</v>
       </c>
@@ -3433,7 +3438,7 @@
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
     </row>
-    <row r="81" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="81" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A81" s="15"/>
       <c r="B81" s="15" t="s">
         <v>42</v>
@@ -3441,16 +3446,16 @@
       <c r="C81" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
     </row>
-    <row r="82" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="82" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A82" s="15"/>
       <c r="B82" s="15" t="s">
         <v>45</v>
@@ -3467,7 +3472,7 @@
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
     </row>
-    <row r="83" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="83" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A83" s="15"/>
       <c r="B83" s="15" t="s">
         <v>48</v>
@@ -3475,16 +3480,16 @@
       <c r="C83" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
     </row>
-    <row r="84" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="84" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A84" s="15"/>
       <c r="B84" s="15" t="s">
         <v>77</v>
@@ -3499,7 +3504,7 @@
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
     </row>
-    <row r="85" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="85" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A85" s="15"/>
       <c r="B85" s="15" t="s">
         <v>54</v>
@@ -3507,16 +3512,16 @@
       <c r="C85" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
     </row>
-    <row r="86" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="86" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A86" s="15"/>
       <c r="B86" s="15" t="s">
         <v>57</v>
@@ -3532,7 +3537,7 @@
       <c r="G86" s="15"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="17"/>
+      <c r="A87" s="20"/>
       <c r="B87" s="15" t="s">
         <v>60</v>
       </c>
@@ -3543,43 +3548,43 @@
       <c r="E87" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:7">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17" t="s">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17" t="s">
+      <c r="E88" s="20"/>
+      <c r="F88" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G88" s="17"/>
+      <c r="G88" s="20"/>
     </row>
     <row r="89" ht="32" spans="1:7">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17" t="s">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17" t="s">
+      <c r="D89" s="20"/>
+      <c r="E89" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-    </row>
-    <row r="90" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A90" s="24"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+    </row>
+    <row r="90" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A90" s="27"/>
       <c r="B90" s="15" t="s">
         <v>38</v>
       </c>
@@ -3595,7 +3600,7 @@
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
     </row>
-    <row r="91" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="91" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A91" s="15"/>
       <c r="B91" s="15" t="s">
         <v>42</v>
@@ -3603,16 +3608,16 @@
       <c r="C91" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
     </row>
-    <row r="92" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="92" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A92" s="15"/>
       <c r="B92" s="15" t="s">
         <v>45</v>
@@ -3629,7 +3634,7 @@
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
     </row>
-    <row r="93" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="93" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A93" s="15"/>
       <c r="B93" s="15" t="s">
         <v>48</v>
@@ -3637,16 +3642,16 @@
       <c r="C93" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
     </row>
-    <row r="94" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="94" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A94" s="15"/>
       <c r="B94" s="15" t="s">
         <v>51</v>
@@ -3663,7 +3668,7 @@
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
     </row>
-    <row r="95" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="95" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A95" s="15"/>
       <c r="B95" s="15" t="s">
         <v>78</v>
@@ -3671,14 +3676,14 @@
       <c r="C95" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D95" s="16" t="s">
+      <c r="D95" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E95" s="16"/>
+      <c r="E95" s="18"/>
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
     </row>
-    <row r="96" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="96" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A96" s="15"/>
       <c r="B96" s="15" t="s">
         <v>57</v>
@@ -3694,7 +3699,7 @@
       <c r="G96" s="15"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="17"/>
+      <c r="A97" s="20"/>
       <c r="B97" s="15" t="s">
         <v>60</v>
       </c>
@@ -3705,43 +3710,43 @@
       <c r="E97" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:7">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17" t="s">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D98" s="17" t="s">
+      <c r="D98" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17" t="s">
+      <c r="E98" s="20"/>
+      <c r="F98" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G98" s="17"/>
+      <c r="G98" s="20"/>
     </row>
     <row r="99" ht="32" spans="1:7">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17" t="s">
+      <c r="A99" s="20"/>
+      <c r="B99" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17" t="s">
+      <c r="D99" s="20"/>
+      <c r="E99" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
     </row>
     <row r="100" ht="48" spans="1:5">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="15" t="s">
@@ -3752,8 +3757,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A101" s="24"/>
+    <row r="101" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A101" s="27"/>
       <c r="B101" s="15" t="s">
         <v>38</v>
       </c>
@@ -3769,7 +3774,7 @@
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
     </row>
-    <row r="102" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="102" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A102" s="15"/>
       <c r="B102" s="15" t="s">
         <v>42</v>
@@ -3777,16 +3782,16 @@
       <c r="C102" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D102" s="16" t="s">
+      <c r="D102" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>98</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
     </row>
-    <row r="103" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="103" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A103" s="15"/>
       <c r="B103" s="15" t="s">
         <v>45</v>
@@ -3803,7 +3808,7 @@
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
     </row>
-    <row r="104" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="104" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A104" s="15"/>
       <c r="B104" s="15" t="s">
         <v>48</v>
@@ -3811,16 +3816,16 @@
       <c r="C104" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D104" s="16" t="s">
+      <c r="D104" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>100</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
     </row>
-    <row r="105" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="105" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A105" s="15"/>
       <c r="B105" s="15" t="s">
         <v>51</v>
@@ -3837,7 +3842,7 @@
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
     </row>
-    <row r="106" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="106" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A106" s="15"/>
       <c r="B106" s="15" t="s">
         <v>54</v>
@@ -3845,16 +3850,16 @@
       <c r="C106" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D106" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>102</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="107" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A107" s="15"/>
       <c r="B107" s="15" t="s">
         <v>57</v>
@@ -3870,7 +3875,7 @@
       <c r="G107" s="15"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="17"/>
+      <c r="A108" s="20"/>
       <c r="B108" s="15" t="s">
         <v>60</v>
       </c>
@@ -3881,43 +3886,43 @@
       <c r="E108" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:7">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17" t="s">
+      <c r="A109" s="20"/>
+      <c r="B109" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D109" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17" t="s">
+      <c r="E109" s="20"/>
+      <c r="F109" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G109" s="17"/>
+      <c r="G109" s="20"/>
     </row>
     <row r="110" ht="32" spans="1:7">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17" t="s">
+      <c r="A110" s="20"/>
+      <c r="B110" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17" t="s">
+      <c r="D110" s="20"/>
+      <c r="E110" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
     </row>
     <row r="111" ht="48" spans="1:5">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C111" s="15" t="s">
@@ -3928,8 +3933,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A112" s="24"/>
+    <row r="112" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A112" s="27"/>
       <c r="B112" s="15" t="s">
         <v>38</v>
       </c>
@@ -3945,7 +3950,7 @@
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
     </row>
-    <row r="113" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="113" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A113" s="15"/>
       <c r="B113" s="15" t="s">
         <v>42</v>
@@ -3953,16 +3958,16 @@
       <c r="C113" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D113" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>105</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
     </row>
-    <row r="114" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="114" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A114" s="15"/>
       <c r="B114" s="15" t="s">
         <v>45</v>
@@ -3979,7 +3984,7 @@
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
     </row>
-    <row r="115" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="115" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A115" s="15"/>
       <c r="B115" s="15" t="s">
         <v>48</v>
@@ -3987,16 +3992,16 @@
       <c r="C115" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D115" s="16" t="s">
+      <c r="D115" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>107</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
     </row>
-    <row r="116" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="116" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A116" s="15"/>
       <c r="B116" s="15" t="s">
         <v>51</v>
@@ -4013,7 +4018,7 @@
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
     </row>
-    <row r="117" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="117" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A117" s="15"/>
       <c r="B117" s="15" t="s">
         <v>54</v>
@@ -4021,16 +4026,16 @@
       <c r="C117" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D117" s="16" t="s">
+      <c r="D117" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>109</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
     </row>
-    <row r="118" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="118" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A118" s="15"/>
       <c r="B118" s="15" t="s">
         <v>57</v>
@@ -4046,7 +4051,7 @@
       <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="17"/>
+      <c r="A119" s="20"/>
       <c r="B119" s="15" t="s">
         <v>60</v>
       </c>
@@ -4057,43 +4062,43 @@
       <c r="E119" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
     </row>
     <row r="120" ht="18" customHeight="1" spans="1:7">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17" t="s">
+      <c r="A120" s="20"/>
+      <c r="B120" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C120" s="17" t="s">
+      <c r="C120" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D120" s="17" t="s">
+      <c r="D120" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17" t="s">
+      <c r="E120" s="20"/>
+      <c r="F120" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G120" s="17"/>
+      <c r="G120" s="20"/>
     </row>
     <row r="121" ht="32" spans="1:7">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17" t="s">
+      <c r="A121" s="20"/>
+      <c r="B121" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17" t="s">
+      <c r="D121" s="20"/>
+      <c r="E121" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
     </row>
     <row r="122" ht="48" spans="1:5">
-      <c r="A122" s="21" t="s">
+      <c r="A122" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="15" t="s">
@@ -4104,8 +4109,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A123" s="24"/>
+    <row r="123" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A123" s="27"/>
       <c r="B123" s="15" t="s">
         <v>38</v>
       </c>
@@ -4121,7 +4126,7 @@
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
     </row>
-    <row r="124" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="124" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A124" s="15"/>
       <c r="B124" s="15" t="s">
         <v>42</v>
@@ -4129,16 +4134,16 @@
       <c r="C124" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D124" s="16" t="s">
+      <c r="D124" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>112</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="125" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A125" s="15"/>
       <c r="B125" s="15" t="s">
         <v>45</v>
@@ -4155,7 +4160,7 @@
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
     </row>
-    <row r="126" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="126" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A126" s="15"/>
       <c r="B126" s="15" t="s">
         <v>48</v>
@@ -4163,16 +4168,16 @@
       <c r="C126" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D126" s="16" t="s">
+      <c r="D126" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
     </row>
-    <row r="127" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="127" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A127" s="15"/>
       <c r="B127" s="15" t="s">
         <v>51</v>
@@ -4189,7 +4194,7 @@
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
     </row>
-    <row r="128" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="128" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A128" s="15"/>
       <c r="B128" s="15" t="s">
         <v>54</v>
@@ -4197,16 +4202,16 @@
       <c r="C128" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D128" s="16" t="s">
+      <c r="D128" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>116</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
     </row>
-    <row r="129" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="129" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A129" s="15"/>
       <c r="B129" s="15" t="s">
         <v>57</v>
@@ -4222,7 +4227,7 @@
       <c r="G129" s="15"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="17"/>
+      <c r="A130" s="20"/>
       <c r="B130" s="15" t="s">
         <v>60</v>
       </c>
@@ -4233,43 +4238,43 @@
       <c r="E130" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
     </row>
     <row r="131" ht="18" customHeight="1" spans="1:7">
-      <c r="A131" s="17"/>
-      <c r="B131" s="17" t="s">
+      <c r="A131" s="20"/>
+      <c r="B131" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E131" s="17"/>
-      <c r="F131" s="17" t="s">
+      <c r="E131" s="20"/>
+      <c r="F131" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G131" s="17"/>
+      <c r="G131" s="20"/>
     </row>
     <row r="132" ht="32" spans="1:7">
-      <c r="A132" s="17"/>
-      <c r="B132" s="17" t="s">
+      <c r="A132" s="20"/>
+      <c r="B132" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17" t="s">
+      <c r="D132" s="20"/>
+      <c r="E132" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
     </row>
     <row r="133" ht="48" spans="1:5">
-      <c r="A133" s="25" t="s">
+      <c r="A133" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C133" s="15" t="s">
@@ -4280,8 +4285,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A134" s="24"/>
+    <row r="134" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A134" s="27"/>
       <c r="B134" s="15" t="s">
         <v>38</v>
       </c>
@@ -4297,7 +4302,7 @@
       <c r="F134" s="15"/>
       <c r="G134" s="15"/>
     </row>
-    <row r="135" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="135" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A135" s="15"/>
       <c r="B135" s="15" t="s">
         <v>42</v>
@@ -4305,16 +4310,16 @@
       <c r="C135" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D135" s="16" t="s">
+      <c r="D135" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>119</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
     </row>
-    <row r="136" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="136" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A136" s="15"/>
       <c r="B136" s="15" t="s">
         <v>45</v>
@@ -4331,7 +4336,7 @@
       <c r="F136" s="15"/>
       <c r="G136" s="15"/>
     </row>
-    <row r="137" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="137" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A137" s="15"/>
       <c r="B137" s="15" t="s">
         <v>48</v>
@@ -4339,16 +4344,16 @@
       <c r="C137" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D137" s="16" t="s">
+      <c r="D137" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>121</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
     </row>
-    <row r="138" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="138" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A138" s="15"/>
       <c r="B138" s="15" t="s">
         <v>51</v>
@@ -4365,7 +4370,7 @@
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
     </row>
-    <row r="139" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="139" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A139" s="15"/>
       <c r="B139" s="15" t="s">
         <v>54</v>
@@ -4373,16 +4378,16 @@
       <c r="C139" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D139" s="16" t="s">
+      <c r="D139" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
     </row>
-    <row r="140" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="140" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A140" s="15"/>
       <c r="B140" s="15" t="s">
         <v>124</v>
@@ -4398,7 +4403,7 @@
       <c r="G140" s="15"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="17"/>
+      <c r="A141" s="20"/>
       <c r="B141" s="15" t="s">
         <v>60</v>
       </c>
@@ -4409,56 +4414,56 @@
       <c r="E141" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F141" s="17"/>
-      <c r="G141" s="17"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
     </row>
     <row r="142" ht="18" customHeight="1" spans="1:7">
-      <c r="A142" s="17"/>
-      <c r="B142" s="17" t="s">
+      <c r="A142" s="20"/>
+      <c r="B142" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17" t="s">
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G142" s="17"/>
+      <c r="G142" s="20"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="17"/>
-      <c r="B143" s="17" t="s">
+      <c r="A143" s="20"/>
+      <c r="B143" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17" t="s">
+      <c r="D143" s="20"/>
+      <c r="E143" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
     </row>
     <row r="144" ht="32" spans="1:7">
-      <c r="A144" s="17"/>
+      <c r="A144" s="20"/>
       <c r="B144" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17" t="s">
+      <c r="D144" s="20"/>
+      <c r="E144" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="17"/>
+      <c r="A145" s="20"/>
       <c r="B145" s="15" t="s">
         <v>60</v>
       </c>
@@ -4469,37 +4474,37 @@
       <c r="E145" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="17"/>
+      <c r="A146" s="20"/>
       <c r="B146" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="20" t="s">
         <v>132</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E146" s="17"/>
-      <c r="F146" s="17"/>
-      <c r="G146" s="17"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
     </row>
     <row r="147" ht="32" spans="1:7">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B147" s="17"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
-    </row>
-    <row r="148" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A148" s="24"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+    </row>
+    <row r="148" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A148" s="27"/>
       <c r="B148" s="15" t="s">
         <v>38</v>
       </c>
@@ -4515,7 +4520,7 @@
       <c r="F148" s="15"/>
       <c r="G148" s="15"/>
     </row>
-    <row r="149" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="149" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A149" s="15"/>
       <c r="B149" s="15" t="s">
         <v>42</v>
@@ -4523,16 +4528,16 @@
       <c r="C149" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D149" s="16" t="s">
+      <c r="D149" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="18" t="s">
         <v>134</v>
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="15"/>
     </row>
-    <row r="150" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="150" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A150" s="15"/>
       <c r="B150" s="15" t="s">
         <v>45</v>
@@ -4549,7 +4554,7 @@
       <c r="F150" s="15"/>
       <c r="G150" s="15"/>
     </row>
-    <row r="151" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="151" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A151" s="15"/>
       <c r="B151" s="15" t="s">
         <v>48</v>
@@ -4557,16 +4562,16 @@
       <c r="C151" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D151" s="16" t="s">
+      <c r="D151" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="18" t="s">
         <v>136</v>
       </c>
       <c r="F151" s="15"/>
       <c r="G151" s="15"/>
     </row>
-    <row r="152" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="152" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A152" s="15"/>
       <c r="B152" s="15" t="s">
         <v>51</v>
@@ -4583,7 +4588,7 @@
       <c r="F152" s="15"/>
       <c r="G152" s="15"/>
     </row>
-    <row r="153" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="153" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A153" s="15"/>
       <c r="B153" s="15" t="s">
         <v>54</v>
@@ -4591,16 +4596,16 @@
       <c r="C153" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D153" s="16" t="s">
+      <c r="D153" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>138</v>
       </c>
       <c r="F153" s="15"/>
       <c r="G153" s="15"/>
     </row>
-    <row r="154" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="154" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A154" s="15"/>
       <c r="B154" s="15" t="s">
         <v>139</v>
@@ -4616,7 +4621,7 @@
       <c r="G154" s="15"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="17"/>
+      <c r="A155" s="20"/>
       <c r="B155" s="15" t="s">
         <v>60</v>
       </c>
@@ -4627,56 +4632,56 @@
       <c r="E155" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
     </row>
     <row r="156" ht="18" customHeight="1" spans="1:7">
-      <c r="A156" s="17"/>
-      <c r="B156" s="17" t="s">
+      <c r="A156" s="20"/>
+      <c r="B156" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="17" t="s">
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G156" s="17"/>
+      <c r="G156" s="20"/>
     </row>
     <row r="157" ht="32" spans="1:7">
-      <c r="A157" s="17"/>
-      <c r="B157" s="17" t="s">
+      <c r="A157" s="20"/>
+      <c r="B157" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17" t="s">
+      <c r="D157" s="20"/>
+      <c r="E157" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="F157" s="17"/>
-      <c r="G157" s="17"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
     </row>
     <row r="158" ht="32" spans="1:7">
-      <c r="A158" s="17"/>
+      <c r="A158" s="20"/>
       <c r="B158" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C158" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17" t="s">
+      <c r="D158" s="20"/>
+      <c r="E158" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F158" s="17"/>
-      <c r="G158" s="17"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="17"/>
+      <c r="A159" s="20"/>
       <c r="B159" s="15" t="s">
         <v>60</v>
       </c>
@@ -4687,95 +4692,95 @@
       <c r="E159" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="17"/>
+      <c r="A160" s="20"/>
       <c r="B160" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="20" t="s">
         <v>132</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="17"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="17"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="17"/>
-      <c r="G162" s="17"/>
+      <c r="A162" s="20"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="17"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="17"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="17"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="17"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="17"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="17"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="17"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4789,8 +4794,8 @@
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -4812,91 +4817,102 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" ht="16" spans="1:2">
+    <row r="2" ht="16" spans="1:3">
       <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" ht="16" spans="1:2">
-      <c r="A3" s="16" t="s">
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" ht="16" spans="1:3">
+      <c r="A3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" ht="16" spans="1:2">
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" ht="16" spans="1:3">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" ht="16" spans="1:2">
-      <c r="A5" s="16" t="s">
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" ht="16" spans="1:3">
+      <c r="A5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" ht="16" spans="1:2">
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" ht="16" spans="1:3">
       <c r="A6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="16" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" ht="16" spans="1:2">
-      <c r="A7" s="16" t="s">
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" ht="16" spans="1:3">
+      <c r="A7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" ht="16" spans="1:2">
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" ht="16" spans="1:3">
       <c r="A8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" ht="16" spans="1:2">
-      <c r="A9" s="17" t="s">
+    <row r="9" ht="16" spans="1:3">
+      <c r="A9" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" ht="16" spans="1:2">
-      <c r="A10" s="17" t="s">
+    <row r="10" ht="16" spans="1:3">
+      <c r="A10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" ht="16" spans="1:2">
+    <row r="11" ht="16" spans="1:3">
       <c r="A11" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="1:2">
+    <row r="12" ht="16" spans="1:3">
       <c r="A12" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="16" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5346,7 +5362,7 @@
       <c r="B2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>226</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -5363,7 +5379,7 @@
       <c r="B3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>229</v>
       </c>
       <c r="D3" s="3"/>
@@ -5378,7 +5394,7 @@
       <c r="B4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="33" t="s">
         <v>232</v>
       </c>
       <c r="D4" s="3"/>
@@ -5393,7 +5409,7 @@
       <c r="B5" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>235</v>
       </c>
       <c r="D5" s="3"/>
@@ -5408,7 +5424,7 @@
       <c r="B6" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="33" t="s">
         <v>238</v>
       </c>
       <c r="D6" s="3"/>
@@ -5423,7 +5439,7 @@
       <c r="B7" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="33" t="s">
         <v>241</v>
       </c>
       <c r="D7" s="3"/>
@@ -5438,7 +5454,7 @@
       <c r="B8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="33" t="s">
         <v>244</v>
       </c>
       <c r="D8" s="3"/>
@@ -5453,7 +5469,7 @@
       <c r="B9" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="33" t="s">
         <v>247</v>
       </c>
       <c r="D9" s="3"/>
@@ -5468,7 +5484,7 @@
       <c r="B10" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>250</v>
       </c>
       <c r="D10" s="3"/>
@@ -5483,7 +5499,7 @@
       <c r="B11" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="33" t="s">
         <v>253</v>
       </c>
       <c r="D11" s="3"/>
@@ -5513,7 +5529,7 @@
       <c r="B13" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="33" t="s">
         <v>259</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -5530,7 +5546,7 @@
       <c r="B14" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>263</v>
       </c>
       <c r="D14" s="3"/>
@@ -5545,7 +5561,7 @@
       <c r="B15" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="33" t="s">
         <v>266</v>
       </c>
       <c r="D15" s="3"/>
@@ -5560,7 +5576,7 @@
       <c r="B16" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="33" t="s">
         <v>269</v>
       </c>
       <c r="D16" s="3"/>
@@ -5575,7 +5591,7 @@
       <c r="B17" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="33" t="s">
         <v>273</v>
       </c>
       <c r="D17" s="3"/>
@@ -5590,7 +5606,7 @@
       <c r="B18" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="33" t="s">
         <v>277</v>
       </c>
       <c r="D18" s="3"/>
@@ -5605,7 +5621,7 @@
       <c r="B19" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="33" t="s">
         <v>280</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -5635,7 +5651,7 @@
       <c r="B21" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="33" t="s">
         <v>286</v>
       </c>
       <c r="D21" s="3"/>
@@ -5650,7 +5666,7 @@
       <c r="B22" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="33" t="s">
         <v>289</v>
       </c>
       <c r="D22" s="3"/>
@@ -5665,7 +5681,7 @@
       <c r="B23" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="33" t="s">
         <v>292</v>
       </c>
       <c r="D23" s="3"/>
@@ -5680,7 +5696,7 @@
       <c r="B24" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="33" t="s">
         <v>296</v>
       </c>
       <c r="D24" s="3"/>
@@ -5695,7 +5711,7 @@
       <c r="B25" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="33" t="s">
         <v>299</v>
       </c>
       <c r="D25" s="3"/>

--- a/TESTSUITE/TS_DangKy.xlsx
+++ b/TESTSUITE/TS_DangKy.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12520" tabRatio="462" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12520" tabRatio="462" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ListTestcase" sheetId="1" r:id="rId1"/>
     <sheet name="Detail" sheetId="2" r:id="rId2"/>
     <sheet name="Object" sheetId="3" r:id="rId3"/>
     <sheet name="Param" sheetId="4" r:id="rId4"/>
-    <sheet name="Library" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220">
   <si>
     <t>Testcase</t>
   </si>
@@ -678,270 +677,6 @@
   </si>
   <si>
     <t>Forgot Password</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>Sử dụng</t>
-  </si>
-  <si>
-    <t>CommonBase</t>
-  </si>
-  <si>
-    <t>initDriverTest(String...URL)</t>
-  </si>
-  <si>
-    <t>- URL: đường dẫn vào hệ thống
-- proName (option) trình duyệt cần chạy test. Không truyền mặt định là firefox</t>
-  </si>
-  <si>
-    <t>Mở trình duyệt theo địa chỉ URL</t>
-  </si>
-  <si>
-    <t>click(Object locator, Object... opParams)</t>
-  </si>
-  <si>
-    <t>- Object: đối tượng được click
-- notDisplay (option): truyền nếu đối tượng không enable trên trang html</t>
-  </si>
-  <si>
-    <t>click vào 1 đối tượng trên màn hình</t>
-  </si>
-  <si>
-    <t>type(Object locator, String value, boolean validate, boolean...clear)</t>
-  </si>
-  <si>
-    <t>- Object: đối tượng được input text
-- value: giá trị cần input
-- validate: sau khi nhập kiểm tra xâu nhập vào có đúng không
-- clear: set false -&gt; không xóa dữ liệu text trước khi nhập</t>
-  </si>
-  <si>
-    <t>Input text vào 1 đối tượng trên màn hình</t>
-  </si>
-  <si>
-    <t>waitForPageLoaded(WebDriver driver)</t>
-  </si>
-  <si>
-    <t>- driver: luôn set driver</t>
-  </si>
-  <si>
-    <t>Đợi trang web được complete load</t>
-  </si>
-  <si>
-    <t>openPage(String pageUrl, WebDriver driver)</t>
-  </si>
-  <si>
-    <t>- pageUrl: Đường dẫn trên trang web cần mở
-- driver: fix là driver</t>
-  </si>
-  <si>
-    <t>Mở 1 trang web theo đường dẫn URL</t>
-  </si>
-  <si>
-    <t>pause(long timeInMillis)</t>
-  </si>
-  <si>
-    <t>- timeInMillis: số mili giây cần dừng test</t>
-  </si>
-  <si>
-    <t>Dừng test trong 1 khoảng thời gian theo thời gian truyền vào</t>
-  </si>
-  <si>
-    <t>getElementPresent(Object locator, int... opParams)</t>
-  </si>
-  <si>
-    <t>- locator: đối tượng cần chờ xuất hiện trên màn hình</t>
-  </si>
-  <si>
-    <t>Đợi 1 đối tượng xuất hiện trên trang web</t>
-  </si>
-  <si>
-    <t>getValue(Object locator, Object... opParams)</t>
-  </si>
-  <si>
-    <t>- locator: đối tượng cần get value trên màn hình</t>
-  </si>
-  <si>
-    <t>Lấy giá trị của 1 đối tượng</t>
-  </si>
-  <si>
-    <t>doubleClickOnElement(Object locator</t>
-  </si>
-  <si>
-    <t>- locator: đối tượng cần double click</t>
-  </si>
-  <si>
-    <t>Double click trên 1 đối tượng</t>
-  </si>
-  <si>
-    <t>getText(Object locator)</t>
-  </si>
-  <si>
-    <t>- locator: đối tượng cần lấy Text</t>
-  </si>
-  <si>
-    <t>Lấy text trên 1 đối tượng</t>
-  </si>
-  <si>
-    <t>quitDriver(WebDriver dr)</t>
-  </si>
-  <si>
-    <t>dr: fix = driver</t>
-  </si>
-  <si>
-    <t>Thoát driver thường set khi kết thúc case test để đóng cửa sổ browser</t>
-  </si>
-  <si>
-    <t>getDateTime(String format)</t>
-  </si>
-  <si>
-    <t>- format: format cần sysdate trả về</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Lấy ngày sysdate theo format quy định trước</t>
-  </si>
-  <si>
-    <t>verifyCompare(String s1, String s2)</t>
-  </si>
-  <si>
-    <t>- s1: xâu 1
-- s2: xâu 2</t>
-  </si>
-  <si>
-    <t>Kiểm tra so sánh 2 xâu ký tự</t>
-  </si>
-  <si>
-    <t>selectOptionFromCombobox(String xpath, String option)</t>
-  </si>
-  <si>
-    <t>- xpath: xpath đến đối tượng option combobox
-- option: giá trị text option cần lấy</t>
-  </si>
-  <si>
-    <t>Chọn vào 1 option trên combobox của hệ thống bccs2</t>
-  </si>
-  <si>
-    <t>selectOptionFromAutocomplete(String object, String autocompletename, String option)</t>
-  </si>
-  <si>
-    <t>- object: đối tượng autocomplete (xpath)
-- autocompletename: tên của bảng autocomplete
-- option: giá trị cần chọn trên autocomplete</t>
-  </si>
-  <si>
-    <t>Chọn 1 option sau khi nhập vào trên autocomplete</t>
-  </si>
-  <si>
-    <t>ManageAccount</t>
-  </si>
-  <si>
-    <t>login(String user, String pass)</t>
-  </si>
-  <si>
-    <t>- user: user name
-- pass: password</t>
-  </si>
-  <si>
-    <t>Login vào VSA test của BCCS</t>
-  </si>
-  <si>
-    <t>JDBCConnectManagement</t>
-  </si>
-  <si>
-    <t>connect(String... database)</t>
-  </si>
-  <si>
-    <t>- database[0]: địa chỉ IP DB
-- database[1]: service name
-- database[2]: user
-- database[3]: pass</t>
-  </si>
-  <si>
-    <t>Mở kết nối đến 1 database</t>
-  </si>
-  <si>
-    <t>getData(String sql, String... params)</t>
-  </si>
-  <si>
-    <t>- sql: câu SQl select cần lấy dữ liệu
-- params (option) các tên cột cần lấy</t>
-  </si>
-  <si>
-    <t>Mảng 2 chiều</t>
-  </si>
-  <si>
-    <t>lấy data từ 1 câu lệnh truy vân</t>
-  </si>
-  <si>
-    <t>close()</t>
-  </si>
-  <si>
-    <t>Đóng kết nối đến 1 database</t>
-  </si>
-  <si>
-    <t>checkRecordExist(String sql)</t>
-  </si>
-  <si>
-    <t>- sql: câu lệnh count(*)</t>
-  </si>
-  <si>
-    <t>Kiểm tra bản ghi có tồn tại theo câu lệnh count(*)</t>
-  </si>
-  <si>
-    <t>executeSql(String sql)</t>
-  </si>
-  <si>
-    <t>- sql: câu lệnh cần execute</t>
-  </si>
-  <si>
-    <t>Thực hiện 1 câu lệnh SQL</t>
-  </si>
-  <si>
-    <t>executeManySQL(String... sql)</t>
-  </si>
-  <si>
-    <t>- sql các câu lệnh cần execute</t>
-  </si>
-  <si>
-    <t>Thực hiện nhiều câu lệnh SQL</t>
-  </si>
-  <si>
-    <t>TestLogger</t>
-  </si>
-  <si>
-    <t>info(String message)</t>
-  </si>
-  <si>
-    <t>- message: message cần in ra màn hình</t>
-  </si>
-  <si>
-    <t>In ra cửa sổ console 1 dòng thông báo</t>
-  </si>
-  <si>
-    <t>switchToFrame(Object locator, Object...opParams)</t>
-  </si>
-  <si>
-    <t>- locator: xpath của frame cần switch</t>
-  </si>
-  <si>
-    <t>Chuyển focus sang  1 frame</t>
-  </si>
-  <si>
-    <t>switchToParentFrame()</t>
-  </si>
-  <si>
-    <t>Chuyển về màn hình main</t>
   </si>
 </sst>
 </file>
@@ -949,10 +684,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -996,50 +731,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1057,8 +753,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,7 +795,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,23 +824,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,11 +839,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1165,7 +900,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,31 +918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,7 +936,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,109 +1056,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,52 +1108,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1447,6 +1141,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1470,145 +1190,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1618,17 +1353,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1643,7 +1369,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1654,10 +1386,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1690,9 +1418,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2028,21 +1753,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -2050,95 +1775,95 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="16.2" customHeight="1" spans="1:3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="29"/>
+      <c r="A11" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2157,2630 +1882,2630 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="20.9140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="21.6171875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="18.6015625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.1171875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="15" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="8.890625" style="23"/>
+    <col min="1" max="1" width="17.21875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="20.9140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="21.6171875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="18.6015625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="25.1171875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="8.890625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A1" s="24" t="s">
+    <row r="1" s="18" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" s="22" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
-      <c r="A2" s="15" t="s">
+    <row r="2" s="19" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
+      <c r="A2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" s="22" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="26" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" s="19" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A4" s="15" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" s="22" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A5" s="24" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" s="19" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" s="22" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A6" s="27"/>
-      <c r="B6" s="15" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" s="19" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
+      <c r="A6" s="24"/>
+      <c r="B6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" s="22" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" s="19" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" s="22" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" s="19" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" s="22" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" s="19" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" s="22" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" s="19" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" s="22" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" s="19" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" s="22" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" s="19" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" ht="32" spans="1:7">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" ht="32" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" ht="32" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" ht="48" spans="1:7">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="15" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A19" s="24"/>
+      <c r="B19" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:7">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" ht="32" spans="1:7">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" ht="64" spans="1:7">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A30" s="27"/>
-      <c r="B30" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A30" s="24"/>
+      <c r="B30" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15" t="s">
+      <c r="E33" s="17"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15" t="s">
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G38" s="20"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" ht="32" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A40" s="27"/>
-      <c r="B40" s="15" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A40" s="24"/>
+      <c r="B40" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="18" t="s">
+      <c r="C41" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="42" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15" t="s">
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="15" t="s">
+      <c r="C42" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15" t="s">
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="18" t="s">
+      <c r="C43" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15" t="s">
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="45" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15" t="s">
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="18" t="s">
+      <c r="C45" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15" t="s">
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="20"/>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
+      <c r="D47" s="14"/>
+      <c r="E47" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:7">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20" t="s">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20" t="s">
+      <c r="E48" s="16"/>
+      <c r="F48" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="G48" s="20"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" ht="32" spans="1:7">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-    </row>
-    <row r="50" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A50" s="27"/>
-      <c r="B50" s="15" t="s">
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A50" s="24"/>
+      <c r="B50" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="15" t="s">
+      <c r="C50" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15" t="s">
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-    </row>
-    <row r="52" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15" t="s">
+      <c r="E51" s="17"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="15" t="s">
+      <c r="C52" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="53" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15" t="s">
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="18" t="s">
+      <c r="C53" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="54" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15" t="s">
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="15" t="s">
+      <c r="C54" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-    </row>
-    <row r="55" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15" t="s">
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="18" t="s">
+      <c r="C55" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-    </row>
-    <row r="56" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15" t="s">
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="20"/>
-      <c r="B57" s="15" t="s">
+      <c r="A57" s="16"/>
+      <c r="B57" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15" t="s">
+      <c r="D57" s="14"/>
+      <c r="E57" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:7">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20" t="s">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20" t="s">
+      <c r="E58" s="16"/>
+      <c r="F58" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G58" s="20"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" ht="32" spans="1:7">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20" t="s">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20" t="s">
+      <c r="D59" s="16"/>
+      <c r="E59" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-    </row>
-    <row r="60" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A60" s="27"/>
-      <c r="B60" s="15" t="s">
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A60" s="24"/>
+      <c r="B60" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="15" t="s">
+      <c r="C60" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-    </row>
-    <row r="61" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15" t="s">
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="18" t="s">
+      <c r="C61" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-    </row>
-    <row r="62" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15" t="s">
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-    </row>
-    <row r="63" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15" t="s">
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="18" t="s">
+      <c r="C63" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-    </row>
-    <row r="64" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15" t="s">
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64" s="15" t="s">
+      <c r="C64" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-    </row>
-    <row r="65" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15" t="s">
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D65" s="18" t="s">
+      <c r="C65" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-    </row>
-    <row r="66" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15" t="s">
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="20"/>
-      <c r="B67" s="15" t="s">
+      <c r="A67" s="16"/>
+      <c r="B67" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15" t="s">
+      <c r="D67" s="14"/>
+      <c r="E67" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:7">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20" t="s">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20" t="s">
+      <c r="E68" s="16"/>
+      <c r="F68" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G68" s="20"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" ht="32" spans="1:7">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20" t="s">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20" t="s">
+      <c r="D69" s="16"/>
+      <c r="E69" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-    </row>
-    <row r="70" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A70" s="27"/>
-      <c r="B70" s="15" t="s">
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A70" s="24"/>
+      <c r="B70" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" s="15" t="s">
+      <c r="C70" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-    </row>
-    <row r="71" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15" t="s">
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" s="18" t="s">
+      <c r="C71" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-    </row>
-    <row r="72" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15" t="s">
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" s="15" t="s">
+      <c r="C72" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-    </row>
-    <row r="73" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15" t="s">
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-    </row>
-    <row r="74" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15" t="s">
+      <c r="E73" s="17"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="15" t="s">
+      <c r="C74" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-    </row>
-    <row r="75" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15" t="s">
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="18" t="s">
+      <c r="C75" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-    </row>
-    <row r="76" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15" t="s">
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="20"/>
-      <c r="B77" s="15" t="s">
+      <c r="A77" s="16"/>
+      <c r="B77" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15" t="s">
+      <c r="D77" s="14"/>
+      <c r="E77" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:7">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20" t="s">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D78" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20" t="s">
+      <c r="E78" s="16"/>
+      <c r="F78" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G78" s="20"/>
+      <c r="G78" s="16"/>
     </row>
     <row r="79" ht="32" spans="1:7">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20" t="s">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20" t="s">
+      <c r="D79" s="16"/>
+      <c r="E79" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-    </row>
-    <row r="80" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A80" s="27"/>
-      <c r="B80" s="15" t="s">
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A80" s="24"/>
+      <c r="B80" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D80" s="15" t="s">
+      <c r="C80" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-    </row>
-    <row r="81" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15" t="s">
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C81" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D81" s="18" t="s">
+      <c r="C81" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E81" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-    </row>
-    <row r="82" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15" t="s">
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+    </row>
+    <row r="82" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="15" t="s">
+      <c r="C82" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-    </row>
-    <row r="83" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15" t="s">
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+    </row>
+    <row r="83" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D83" s="18" t="s">
+      <c r="C83" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-    </row>
-    <row r="84" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15" t="s">
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+    </row>
+    <row r="84" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-    </row>
-    <row r="85" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15" t="s">
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+    </row>
+    <row r="85" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" s="18" t="s">
+      <c r="C85" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-    </row>
-    <row r="86" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15" t="s">
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+    </row>
+    <row r="86" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="20"/>
-      <c r="B87" s="15" t="s">
+      <c r="A87" s="16"/>
+      <c r="B87" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15" t="s">
+      <c r="D87" s="14"/>
+      <c r="E87" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:7">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20" t="s">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20" t="s">
+      <c r="E88" s="16"/>
+      <c r="F88" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G88" s="20"/>
+      <c r="G88" s="16"/>
     </row>
     <row r="89" ht="32" spans="1:7">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20" t="s">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20" t="s">
+      <c r="D89" s="16"/>
+      <c r="E89" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-    </row>
-    <row r="90" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A90" s="27"/>
-      <c r="B90" s="15" t="s">
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+    </row>
+    <row r="90" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A90" s="24"/>
+      <c r="B90" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" s="15" t="s">
+      <c r="C90" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E90" s="15" t="s">
+      <c r="E90" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-    </row>
-    <row r="91" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15" t="s">
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C91" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D91" s="18" t="s">
+      <c r="C91" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-    </row>
-    <row r="92" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15" t="s">
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C92" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D92" s="15" t="s">
+      <c r="C92" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="E92" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-    </row>
-    <row r="93" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15" t="s">
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+    </row>
+    <row r="93" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D93" s="18" t="s">
+      <c r="C93" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-    </row>
-    <row r="94" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15" t="s">
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C94" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D94" s="15" t="s">
+      <c r="C94" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-    </row>
-    <row r="95" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15" t="s">
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+    </row>
+    <row r="95" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D95" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E95" s="18"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-    </row>
-    <row r="96" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15" t="s">
+      <c r="E95" s="17"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+    </row>
+    <row r="96" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="20"/>
-      <c r="B97" s="15" t="s">
+      <c r="A97" s="16"/>
+      <c r="B97" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15" t="s">
+      <c r="D97" s="14"/>
+      <c r="E97" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:7">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20" t="s">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D98" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20" t="s">
+      <c r="E98" s="16"/>
+      <c r="F98" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G98" s="20"/>
+      <c r="G98" s="16"/>
     </row>
     <row r="99" ht="32" spans="1:7">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20" t="s">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20" t="s">
+      <c r="D99" s="16"/>
+      <c r="E99" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
     </row>
     <row r="100" ht="48" spans="1:5">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15" t="s">
+      <c r="D100" s="14"/>
+      <c r="E100" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="101" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A101" s="27"/>
-      <c r="B101" s="15" t="s">
+    <row r="101" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A101" s="24"/>
+      <c r="B101" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C101" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D101" s="15" t="s">
+      <c r="C101" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D101" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E101" s="15" t="s">
+      <c r="E101" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-    </row>
-    <row r="102" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15" t="s">
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+    </row>
+    <row r="102" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C102" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D102" s="18" t="s">
+      <c r="C102" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-    </row>
-    <row r="103" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15" t="s">
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+    </row>
+    <row r="103" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C103" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D103" s="15" t="s">
+      <c r="C103" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E103" s="15" t="s">
+      <c r="E103" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-    </row>
-    <row r="104" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15" t="s">
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+    </row>
+    <row r="104" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C104" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D104" s="18" t="s">
+      <c r="C104" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E104" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-    </row>
-    <row r="105" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15" t="s">
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+    </row>
+    <row r="105" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C105" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D105" s="15" t="s">
+      <c r="C105" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E105" s="15" t="s">
+      <c r="E105" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-    </row>
-    <row r="106" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15" t="s">
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+    </row>
+    <row r="106" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C106" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D106" s="18" t="s">
+      <c r="C106" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-    </row>
-    <row r="107" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15" t="s">
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+    </row>
+    <row r="107" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="D107" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="20"/>
-      <c r="B108" s="15" t="s">
+      <c r="A108" s="16"/>
+      <c r="B108" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15" t="s">
+      <c r="D108" s="14"/>
+      <c r="E108" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:7">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20" t="s">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20" t="s">
+      <c r="E109" s="16"/>
+      <c r="F109" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G109" s="20"/>
+      <c r="G109" s="16"/>
     </row>
     <row r="110" ht="32" spans="1:7">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20" t="s">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20" t="s">
+      <c r="D110" s="16"/>
+      <c r="E110" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
     </row>
     <row r="111" ht="48" spans="1:5">
-      <c r="A111" s="24" t="s">
+      <c r="A111" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15" t="s">
+      <c r="D111" s="14"/>
+      <c r="E111" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="112" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A112" s="27"/>
-      <c r="B112" s="15" t="s">
+    <row r="112" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A112" s="24"/>
+      <c r="B112" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C112" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D112" s="15" t="s">
+      <c r="C112" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E112" s="15" t="s">
+      <c r="E112" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-    </row>
-    <row r="113" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15" t="s">
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+    </row>
+    <row r="113" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A113" s="14"/>
+      <c r="B113" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C113" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D113" s="18" t="s">
+      <c r="C113" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D113" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E113" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-    </row>
-    <row r="114" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15" t="s">
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+    </row>
+    <row r="114" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A114" s="14"/>
+      <c r="B114" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C114" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D114" s="15" t="s">
+      <c r="C114" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E114" s="15" t="s">
+      <c r="E114" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-    </row>
-    <row r="115" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15" t="s">
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+    </row>
+    <row r="115" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A115" s="14"/>
+      <c r="B115" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C115" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D115" s="18" t="s">
+      <c r="C115" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E115" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-    </row>
-    <row r="116" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15" t="s">
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+    </row>
+    <row r="116" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A116" s="14"/>
+      <c r="B116" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C116" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D116" s="15" t="s">
+      <c r="C116" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E116" s="15" t="s">
+      <c r="E116" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-    </row>
-    <row r="117" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15" t="s">
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+    </row>
+    <row r="117" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A117" s="14"/>
+      <c r="B117" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C117" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D117" s="18" t="s">
+      <c r="C117" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E117" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-    </row>
-    <row r="118" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15" t="s">
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+    </row>
+    <row r="118" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A118" s="14"/>
+      <c r="B118" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D118" s="15" t="s">
+      <c r="D118" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="20"/>
-      <c r="B119" s="15" t="s">
+      <c r="A119" s="16"/>
+      <c r="B119" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15" t="s">
+      <c r="D119" s="14"/>
+      <c r="E119" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
     </row>
     <row r="120" ht="18" customHeight="1" spans="1:7">
-      <c r="A120" s="20"/>
-      <c r="B120" s="20" t="s">
+      <c r="A120" s="16"/>
+      <c r="B120" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D120" s="20" t="s">
+      <c r="D120" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20" t="s">
+      <c r="E120" s="16"/>
+      <c r="F120" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G120" s="20"/>
+      <c r="G120" s="16"/>
     </row>
     <row r="121" ht="32" spans="1:7">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20" t="s">
+      <c r="A121" s="16"/>
+      <c r="B121" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20" t="s">
+      <c r="D121" s="16"/>
+      <c r="E121" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
     </row>
     <row r="122" ht="48" spans="1:5">
-      <c r="A122" s="24" t="s">
+      <c r="A122" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C122" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15" t="s">
+      <c r="D122" s="14"/>
+      <c r="E122" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="123" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A123" s="27"/>
-      <c r="B123" s="15" t="s">
+    <row r="123" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A123" s="24"/>
+      <c r="B123" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C123" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D123" s="15" t="s">
+      <c r="C123" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E123" s="15" t="s">
+      <c r="E123" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-    </row>
-    <row r="124" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15" t="s">
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+    </row>
+    <row r="124" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C124" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D124" s="18" t="s">
+      <c r="C124" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E124" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-    </row>
-    <row r="125" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15" t="s">
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+    </row>
+    <row r="125" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A125" s="14"/>
+      <c r="B125" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C125" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D125" s="15" t="s">
+      <c r="C125" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D125" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E125" s="15" t="s">
+      <c r="E125" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-    </row>
-    <row r="126" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15" t="s">
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+    </row>
+    <row r="126" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A126" s="14"/>
+      <c r="B126" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C126" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D126" s="18" t="s">
+      <c r="C126" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D126" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E126" s="18" t="s">
+      <c r="E126" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-    </row>
-    <row r="127" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15" t="s">
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+    </row>
+    <row r="127" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A127" s="14"/>
+      <c r="B127" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C127" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D127" s="15" t="s">
+      <c r="C127" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E127" s="15" t="s">
+      <c r="E127" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-    </row>
-    <row r="128" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15" t="s">
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+    </row>
+    <row r="128" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C128" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D128" s="18" t="s">
+      <c r="C128" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E128" s="18" t="s">
+      <c r="E128" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-    </row>
-    <row r="129" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15" t="s">
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+    </row>
+    <row r="129" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A129" s="14"/>
+      <c r="B129" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C129" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D129" s="15" t="s">
+      <c r="D129" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="20"/>
-      <c r="B130" s="15" t="s">
+      <c r="A130" s="16"/>
+      <c r="B130" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C130" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15" t="s">
+      <c r="D130" s="14"/>
+      <c r="E130" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F130" s="20"/>
-      <c r="G130" s="20"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
     </row>
     <row r="131" ht="18" customHeight="1" spans="1:7">
-      <c r="A131" s="20"/>
-      <c r="B131" s="20" t="s">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D131" s="20" t="s">
+      <c r="D131" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20" t="s">
+      <c r="E131" s="16"/>
+      <c r="F131" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G131" s="20"/>
+      <c r="G131" s="16"/>
     </row>
     <row r="132" ht="32" spans="1:7">
-      <c r="A132" s="20"/>
-      <c r="B132" s="20" t="s">
+      <c r="A132" s="16"/>
+      <c r="B132" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20" t="s">
+      <c r="D132" s="16"/>
+      <c r="E132" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
     </row>
     <row r="133" ht="48" spans="1:5">
-      <c r="A133" s="28" t="s">
+      <c r="A133" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15" t="s">
+      <c r="D133" s="14"/>
+      <c r="E133" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="134" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A134" s="27"/>
-      <c r="B134" s="15" t="s">
+    <row r="134" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A134" s="24"/>
+      <c r="B134" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C134" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D134" s="15" t="s">
+      <c r="C134" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E134" s="15" t="s">
+      <c r="E134" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-    </row>
-    <row r="135" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15" t="s">
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+    </row>
+    <row r="135" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A135" s="14"/>
+      <c r="B135" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C135" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D135" s="18" t="s">
+      <c r="C135" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D135" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E135" s="18" t="s">
+      <c r="E135" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-    </row>
-    <row r="136" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A136" s="15"/>
-      <c r="B136" s="15" t="s">
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+    </row>
+    <row r="136" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A136" s="14"/>
+      <c r="B136" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C136" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D136" s="15" t="s">
+      <c r="C136" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E136" s="15" t="s">
+      <c r="E136" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-    </row>
-    <row r="137" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A137" s="15"/>
-      <c r="B137" s="15" t="s">
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+    </row>
+    <row r="137" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A137" s="14"/>
+      <c r="B137" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C137" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D137" s="18" t="s">
+      <c r="C137" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E137" s="18" t="s">
+      <c r="E137" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-    </row>
-    <row r="138" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A138" s="15"/>
-      <c r="B138" s="15" t="s">
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+    </row>
+    <row r="138" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A138" s="14"/>
+      <c r="B138" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C138" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D138" s="15" t="s">
+      <c r="C138" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D138" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E138" s="15" t="s">
+      <c r="E138" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-    </row>
-    <row r="139" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A139" s="15"/>
-      <c r="B139" s="15" t="s">
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+    </row>
+    <row r="139" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A139" s="14"/>
+      <c r="B139" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C139" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D139" s="18" t="s">
+      <c r="C139" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D139" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E139" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-    </row>
-    <row r="140" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A140" s="15"/>
-      <c r="B140" s="15" t="s">
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+    </row>
+    <row r="140" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A140" s="14"/>
+      <c r="B140" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C140" s="15" t="s">
+      <c r="C140" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D140" s="15" t="s">
+      <c r="D140" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="20"/>
-      <c r="B141" s="15" t="s">
+      <c r="A141" s="16"/>
+      <c r="B141" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15" t="s">
+      <c r="D141" s="14"/>
+      <c r="E141" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
     </row>
     <row r="142" ht="18" customHeight="1" spans="1:7">
-      <c r="A142" s="20"/>
-      <c r="B142" s="20" t="s">
+      <c r="A142" s="16"/>
+      <c r="B142" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="C142" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20" t="s">
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G142" s="20"/>
+      <c r="G142" s="16"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="20"/>
-      <c r="B143" s="20" t="s">
+      <c r="A143" s="16"/>
+      <c r="B143" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20" t="s">
+      <c r="D143" s="16"/>
+      <c r="E143" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F143" s="20"/>
-      <c r="G143" s="20"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
     </row>
     <row r="144" ht="32" spans="1:7">
-      <c r="A144" s="20"/>
-      <c r="B144" s="15" t="s">
+      <c r="A144" s="16"/>
+      <c r="B144" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C144" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20" t="s">
+      <c r="D144" s="16"/>
+      <c r="E144" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F144" s="20"/>
-      <c r="G144" s="20"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="20"/>
-      <c r="B145" s="15" t="s">
+      <c r="A145" s="16"/>
+      <c r="B145" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C145" s="15" t="s">
+      <c r="C145" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15" t="s">
+      <c r="D145" s="14"/>
+      <c r="E145" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F145" s="20"/>
-      <c r="G145" s="20"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="20"/>
-      <c r="B146" s="15" t="s">
+      <c r="A146" s="16"/>
+      <c r="B146" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D146" s="15" t="s">
+      <c r="D146" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="20"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
     </row>
     <row r="147" ht="32" spans="1:7">
-      <c r="A147" s="24" t="s">
+      <c r="A147" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B147" s="20"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
-    </row>
-    <row r="148" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A148" s="27"/>
-      <c r="B148" s="15" t="s">
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+    </row>
+    <row r="148" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A148" s="24"/>
+      <c r="B148" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C148" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D148" s="15" t="s">
+      <c r="C148" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D148" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E148" s="15" t="s">
+      <c r="E148" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-    </row>
-    <row r="149" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A149" s="15"/>
-      <c r="B149" s="15" t="s">
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+    </row>
+    <row r="149" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A149" s="14"/>
+      <c r="B149" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C149" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D149" s="18" t="s">
+      <c r="C149" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D149" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E149" s="18" t="s">
+      <c r="E149" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-    </row>
-    <row r="150" s="22" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A150" s="15"/>
-      <c r="B150" s="15" t="s">
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+    </row>
+    <row r="150" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+      <c r="A150" s="14"/>
+      <c r="B150" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C150" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D150" s="15" t="s">
+      <c r="C150" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D150" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E150" s="15" t="s">
+      <c r="E150" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-    </row>
-    <row r="151" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A151" s="15"/>
-      <c r="B151" s="15" t="s">
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+    </row>
+    <row r="151" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A151" s="14"/>
+      <c r="B151" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C151" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D151" s="18" t="s">
+      <c r="C151" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E151" s="18" t="s">
+      <c r="E151" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-    </row>
-    <row r="152" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A152" s="15"/>
-      <c r="B152" s="15" t="s">
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+    </row>
+    <row r="152" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A152" s="14"/>
+      <c r="B152" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C152" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D152" s="15" t="s">
+      <c r="C152" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D152" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E152" s="15" t="s">
+      <c r="E152" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-    </row>
-    <row r="153" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A153" s="15"/>
-      <c r="B153" s="15" t="s">
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+    </row>
+    <row r="153" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A153" s="14"/>
+      <c r="B153" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C153" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D153" s="18" t="s">
+      <c r="C153" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D153" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E153" s="18" t="s">
+      <c r="E153" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-    </row>
-    <row r="154" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A154" s="15"/>
-      <c r="B154" s="15" t="s">
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+    </row>
+    <row r="154" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A154" s="14"/>
+      <c r="B154" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C154" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D154" s="15" t="s">
+      <c r="D154" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="20"/>
-      <c r="B155" s="15" t="s">
+      <c r="A155" s="16"/>
+      <c r="B155" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C155" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15" t="s">
+      <c r="D155" s="14"/>
+      <c r="E155" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
     </row>
     <row r="156" ht="18" customHeight="1" spans="1:7">
-      <c r="A156" s="20"/>
-      <c r="B156" s="20" t="s">
+      <c r="A156" s="16"/>
+      <c r="B156" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C156" s="20" t="s">
+      <c r="C156" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="20" t="s">
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G156" s="20"/>
+      <c r="G156" s="16"/>
     </row>
     <row r="157" ht="32" spans="1:7">
-      <c r="A157" s="20"/>
-      <c r="B157" s="20" t="s">
+      <c r="A157" s="16"/>
+      <c r="B157" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C157" s="20" t="s">
+      <c r="C157" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D157" s="20"/>
-      <c r="E157" s="20" t="s">
+      <c r="D157" s="16"/>
+      <c r="E157" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F157" s="20"/>
-      <c r="G157" s="20"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
     </row>
     <row r="158" ht="32" spans="1:7">
-      <c r="A158" s="20"/>
-      <c r="B158" s="15" t="s">
+      <c r="A158" s="16"/>
+      <c r="B158" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C158" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D158" s="20"/>
-      <c r="E158" s="20" t="s">
+      <c r="D158" s="16"/>
+      <c r="E158" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="20"/>
-      <c r="B159" s="15" t="s">
+      <c r="A159" s="16"/>
+      <c r="B159" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C159" s="15" t="s">
+      <c r="C159" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15" t="s">
+      <c r="D159" s="14"/>
+      <c r="E159" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F159" s="20"/>
-      <c r="G159" s="20"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="20"/>
-      <c r="B160" s="15" t="s">
+      <c r="A160" s="16"/>
+      <c r="B160" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D160" s="15" t="s">
+      <c r="D160" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E160" s="20"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="20"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="20"/>
-      <c r="B161" s="20"/>
-      <c r="C161" s="20"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="20"/>
-      <c r="G161" s="20"/>
+      <c r="A161" s="16"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="20"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="20"/>
-      <c r="D162" s="20"/>
-      <c r="E162" s="20"/>
-      <c r="F162" s="20"/>
-      <c r="G162" s="20"/>
+      <c r="A162" s="16"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="20"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="20"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
+      <c r="A163" s="16"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="20"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="20"/>
-      <c r="D164" s="20"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
+      <c r="A164" s="16"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="20"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="20"/>
-      <c r="D165" s="20"/>
-      <c r="E165" s="20"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="20"/>
+      <c r="A165" s="16"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="20"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="20"/>
-      <c r="D166" s="20"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="20"/>
-      <c r="G166" s="20"/>
+      <c r="A166" s="16"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="20"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="20"/>
-      <c r="D167" s="20"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="20"/>
+      <c r="A167" s="16"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="20"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="20"/>
-      <c r="D168" s="20"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20"/>
+      <c r="A168" s="16"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4794,7 +4519,7 @@
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
@@ -4802,117 +4527,117 @@
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="42.3359375" customWidth="1"/>
-    <col min="3" max="3" width="114" style="1" customWidth="1"/>
+    <col min="3" max="3" width="114" style="11" customWidth="1"/>
     <col min="5" max="5" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" ht="16" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" ht="16" spans="1:3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" ht="16" spans="1:3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" ht="16" spans="1:3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" ht="16" spans="1:3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" ht="16" spans="1:3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" ht="16" spans="1:3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" ht="16" spans="1:3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" ht="16" spans="1:3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="11" ht="16" spans="1:3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" ht="16" spans="1:3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4927,36 +4652,36 @@
   <sheetPr/>
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.4453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.4453125" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.890625" style="4"/>
+    <col min="1" max="1" width="32.4453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.4453125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B3" t="s">
@@ -4964,354 +4689,354 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" ht="16" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="7" ht="16" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="8" ht="16" spans="1:2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" ht="16" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="10" ht="16" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="13" ht="16" spans="1:2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" ht="16" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" ht="16" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="16" ht="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" ht="16" spans="1:2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="18" ht="16" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="20" ht="16" spans="1:2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" ht="16" spans="1:2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="22" ht="16" spans="1:2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="23" ht="16" spans="1:2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="24" ht="16" spans="1:2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="25" ht="16" spans="1:2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" ht="16" spans="1:2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="28" ht="16" spans="1:2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="29" ht="16" spans="1:2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="30" ht="16" spans="1:2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="31" ht="16" spans="1:2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="32" ht="16" spans="1:2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" ht="16" spans="1:2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="35" ht="16" spans="1:2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="36" ht="16" spans="1:2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="37" ht="16" spans="1:2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="38" ht="16" spans="1:2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="39" ht="16" spans="1:2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="41" ht="16" spans="1:2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="42" ht="16" spans="1:2">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="43" ht="16" spans="1:2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="44" ht="16" spans="1:2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="45" ht="16" spans="1:2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="46" ht="16" spans="1:2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="8" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5320,420 +5045,4 @@
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="30.3359375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="33" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" ht="42" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" ht="42" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" ht="84" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" ht="28" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" ht="42" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" ht="28" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" ht="28" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" ht="28" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" ht="28" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" ht="28" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" ht="28" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" ht="28" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" ht="42" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" ht="70" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" ht="28" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" ht="56" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" ht="28" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" ht="28" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" ht="28" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>